--- a/数据整理/stocks/A股/上证主板/603877-太平鸟.xlsx
+++ b/数据整理/stocks/A股/上证主板/603877-太平鸟.xlsx
@@ -451,295 +451,395 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6449</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5534</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>001396</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>建信互联网+产业升级股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>92.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.22</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002621</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002697</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>92.22</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>6.30</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>002871</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>华夏智胜价值成长股票A</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>93.28</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>002872</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>华夏智胜价值成长股票C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>93.28</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001396</t>
+          <t>010336</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信互联网+产业升级股票</t>
+          <t>中欧悦享生活混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>73.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5060</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -818,25 +938,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>002621</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>中欧消费主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>33.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3405</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.60</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>9.52</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1348</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>240001</t>
+          <t>002697</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝宝康消费品混合</t>
+          <t>中欧消费主题股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>73.91</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010336</t>
+          <t>240001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合A</t>
+          <t>华宝宝康消费品混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>14.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>73.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7483</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>001118</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>华宝事件驱动混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001118</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝事件驱动混合</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83.23</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>001396</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>建信互联网+产业升级股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010704</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通智选消费股票C</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007439</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东海科技动力混合A</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>83.15</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007463</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东海科技动力混合C</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>83.15</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1136,15 +1366,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>85.58</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>5.63</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>010704</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>财通智选消费股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002621</t>
+          <t>007439</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧消费主题股票A</t>
+          <t>东海科技动力混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10.08</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>007463</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中欧消费主题股票C</t>
+          <t>东海科技动力混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10.08</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603877-太平鸟.xlsx
+++ b/数据整理/stocks/A股/上证主板/603877-太平鸟.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2858</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1197</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1316</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9013</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5108</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3785</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3707</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003912</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003913</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603877-太平鸟.xlsx
+++ b/数据整理/stocks/A股/上证主板/603877-太平鸟.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2550,4 +2551,780 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4248</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3494</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2835</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603877-太平鸟.xlsx
+++ b/数据整理/stocks/A股/上证主板/603877-太平鸟.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3327,4 +3328,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603877-太平鸟.xlsx
+++ b/数据整理/stocks/A股/上证主板/603877-太平鸟.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3336,7 +3337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3347,17 +3348,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3367,14 +3388,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>7.3</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -3383,14 +3478,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>12.54</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4">
@@ -3399,14 +3494,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>11.61</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="5">
@@ -3415,13 +3510,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603877-太平鸟.xlsx
+++ b/数据整理/stocks/A股/上证主板/603877-太平鸟.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3431,7 +3432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3442,17 +3443,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3462,14 +3483,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -3478,14 +3573,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>7.3</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -3494,14 +3589,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>12.54</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="5">
@@ -3510,14 +3605,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>11.61</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="6">
@@ -3526,13 +3621,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.79</v>
       </c>
     </row>
